--- a/tests/data.gui/test/concentrations/ds.2p/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.2p/kev.concentrations.data.xlsx
@@ -9,10 +9,11 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="molecule1_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="molecule1_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -675,114 +676,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.060221507767779</v>
+        <v>0.06098</v>
       </c>
       <c r="B2" t="n">
-        <v>5.3108244175902e-08</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.12015512928731e-05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.000358645340484335</v>
+        <v>0.0003999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0599529770393415</v>
+        <v>0.06128</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37271332748389e-08</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.23895850794846e-05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.000627316687831008</v>
+        <v>0.0006998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0591267017748701</v>
+        <v>0.06098</v>
       </c>
       <c r="B4" t="n">
-        <v>1.3447930611006e-07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.000102432816263386</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.000875432704482805</v>
+        <v>0.000978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0592372541395083</v>
+        <v>0.06208</v>
       </c>
       <c r="B5" t="n">
-        <v>2.05527743503209e-07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000156843084036124</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0013429513883617</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0582218844310663</v>
+        <v>0.06199</v>
       </c>
       <c r="B6" t="n">
-        <v>2.81745039245558e-07</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.000211320941006827</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.00177839731413314</v>
+        <v>0.00199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00022451957082663</v>
+        <v>0.0009877</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000247777454472839</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.000716664661897442</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.32578836564803e-05</v>
+        <v>0.0009877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.000524099776735734</v>
+        <v>0.008865</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00107282994206379</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00724343989260827</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.00054873016532813</v>
+        <v>0.008865</v>
       </c>
     </row>
   </sheetData>
@@ -801,138 +754,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
+      <c r="A2" t="n">
+        <v>0.060221507767779</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.3108244175902e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.12015512928731e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000358645340484335</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
+      <c r="A3" t="n">
+        <v>0.0599529770393415</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.37271332748389e-08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.23895850794846e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.000627316687831008</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
+      <c r="A4" t="n">
+        <v>0.0591267017748701</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.3447930611006e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.000102432816263386</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.000875432704482805</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
+      <c r="A5" t="n">
+        <v>0.0592372541395083</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.05527743503209e-07</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.000156843084036124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0013429513883617</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+      <c r="A6" t="n">
+        <v>0.0582218844310663</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.81745039245558e-07</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.000211320941006827</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00177839731413314</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
+      <c r="A7" t="n">
+        <v>0.00022451957082663</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.000247777454472839</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.000716664661897442</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.32578836564803e-05</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
+      <c r="A8" t="n">
+        <v>0.000524099776735734</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00107282994206379</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00724343989260827</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00054873016532813</v>
       </c>
     </row>
   </sheetData>
@@ -951,66 +880,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>6.6498681493004e-13</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.34726667865256e-11</v>
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.35414869772889e-12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.2543034295486e-11</v>
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.62503023682681e-12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.34782167282886e-11</v>
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4.31411868571371e-12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9.42178915904387e-11</v>
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5.47443917016278e-12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9.00567745027924e-11</v>
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3.74933950023786e-11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.70944065840085e-11</v>
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2.9548025366328e-14</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.07423224425879e-14</v>
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1031,6 +1032,84 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.6498681493004e-13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.34726667865256e-11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.35414869772889e-12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.2543034295486e-11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.62503023682681e-12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.34782167282886e-11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.31411868571371e-12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.42178915904387e-11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.47443917016278e-12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.00567745027924e-11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.74933950023786e-11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.70944065840085e-11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.9548025366328e-14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.07423224425879e-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/data.gui/test/concentrations/ds.2p/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.2p/kev.concentrations.data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="molecule1_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="molecule2_fractions" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">molecule1</t>
   </si>
@@ -45,37 +45,37 @@
     <t xml:space="preserve">tot</t>
   </si>
   <si>
-    <t xml:space="preserve">0.06098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0003999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0006998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0009877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008865</t>
+    <t xml:space="preserve">0,06098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0003999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,06128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0006998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,000978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,06208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,06199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0009877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,008865</t>
   </si>
   <si>
     <t xml:space="preserve">molecule1_1</t>
@@ -93,103 +93,100 @@
     <t xml:space="preserve">rn</t>
   </si>
   <si>
-    <t xml:space="preserve">p(molecule1)</t>
+    <t xml:space="preserve">p(molecule2)</t>
   </si>
   <si>
     <t xml:space="preserve">S_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.18</t>
+    <t xml:space="preserve"> 7.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.68</t>
   </si>
   <si>
     <t xml:space="preserve">S_2</t>
   </si>
   <si>
-    <t xml:space="preserve">97.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.05</t>
+    <t xml:space="preserve"> 7.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.64</t>
   </si>
   <si>
     <t xml:space="preserve">S_3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.87</t>
+    <t xml:space="preserve"> 6.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.51</t>
   </si>
   <si>
     <t xml:space="preserve">S_4</t>
   </si>
   <si>
-    <t xml:space="preserve">95.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.33</t>
+    <t xml:space="preserve"> 6.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.53</t>
   </si>
   <si>
     <t xml:space="preserve">S_5</t>
   </si>
   <si>
-    <t xml:space="preserve">93.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.74</t>
+    <t xml:space="preserve"> 6.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.37</t>
   </si>
   <si>
     <t xml:space="preserve">S_6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.73</t>
+    <t xml:space="preserve"> 3.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.09</t>
   </si>
   <si>
     <t xml:space="preserve">72.56</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.71</t>
+    <t xml:space="preserve"> 2.35</t>
   </si>
   <si>
     <t xml:space="preserve">S_7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.91</t>
+    <t xml:space="preserve"> 2.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.10</t>
   </si>
   <si>
     <t xml:space="preserve">81.71</t>
   </si>
   <si>
-    <t xml:space="preserve">12.38</t>
+    <t xml:space="preserve"> 6.19</t>
   </si>
 </sst>
 </file>
@@ -771,10 +768,10 @@
         <v>0.060221507767779</v>
       </c>
       <c r="B2" t="n">
-        <v>5.3108244175902e-08</v>
+        <v>0.000000053108244175902</v>
       </c>
       <c r="C2" t="n">
-        <v>4.12015512928731e-05</v>
+        <v>0.0000412015512928731</v>
       </c>
       <c r="D2" t="n">
         <v>0.000358645340484335</v>
@@ -785,10 +782,10 @@
         <v>0.0599529770393415</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37271332748389e-08</v>
+        <v>0.0000000937271332748389</v>
       </c>
       <c r="C3" t="n">
-        <v>7.23895850794846e-05</v>
+        <v>0.0000723895850794846</v>
       </c>
       <c r="D3" t="n">
         <v>0.000627316687831008</v>
@@ -799,10 +796,10 @@
         <v>0.0591267017748701</v>
       </c>
       <c r="B4" t="n">
-        <v>1.3447930611006e-07</v>
+        <v>0.000000134479306110061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000102432816263386</v>
+        <v>0.000102432816263387</v>
       </c>
       <c r="D4" t="n">
         <v>0.000875432704482805</v>
@@ -813,7 +810,7 @@
         <v>0.0592372541395083</v>
       </c>
       <c r="B5" t="n">
-        <v>2.05527743503209e-07</v>
+        <v>0.000000205527743503209</v>
       </c>
       <c r="C5" t="n">
         <v>0.000156843084036124</v>
@@ -827,7 +824,7 @@
         <v>0.0582218844310663</v>
       </c>
       <c r="B6" t="n">
-        <v>2.81745039245558e-07</v>
+        <v>0.000000281745039245558</v>
       </c>
       <c r="C6" t="n">
         <v>0.000211320941006827</v>
@@ -847,7 +844,7 @@
         <v>0.000716664661897442</v>
       </c>
       <c r="D7" t="n">
-        <v>2.32578836564803e-05</v>
+        <v>0.0000232578836564803</v>
       </c>
     </row>
     <row r="8">
@@ -886,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -917,10 +914,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -937,81 +934,81 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1038,58 +1035,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.6498681493004e-13</v>
+        <v>0.00000000000066498681493004</v>
       </c>
       <c r="B2" t="n">
-        <v>5.34726667865256e-11</v>
+        <v>0.0000000000534726667865256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.35414869772889e-12</v>
+        <v>0.00000000000135414869772889</v>
       </c>
       <c r="B3" t="n">
-        <v>6.2543034295486e-11</v>
+        <v>0.000000000062543034295486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.62503023682681e-12</v>
+        <v>0.00000000000162514402649398</v>
       </c>
       <c r="B4" t="n">
-        <v>5.34782167282886e-11</v>
+        <v>0.00000000005347866016476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.31411868571371e-12</v>
+        <v>0.00000000000431411868571371</v>
       </c>
       <c r="B5" t="n">
-        <v>9.42178915904387e-11</v>
+        <v>0.0000000000942178915904387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47443917016278e-12</v>
+        <v>0.00000000000547443917016278</v>
       </c>
       <c r="B6" t="n">
-        <v>9.00567745027924e-11</v>
+        <v>0.0000000000900567745027924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.74933950023786e-11</v>
+        <v>0.0000000000374933950023786</v>
       </c>
       <c r="B7" t="n">
-        <v>2.70944065840085e-11</v>
+        <v>0.0000000000270944065840085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.9548025366328e-14</v>
+        <v>0.000000000000029548025366328</v>
       </c>
       <c r="B8" t="n">
-        <v>2.07423224425879e-14</v>
+        <v>0.0000000000000207423224425879</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1105,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
